--- a/biology/Médecine/Polymicrogyrie/Polymicrogyrie.xlsx
+++ b/biology/Médecine/Polymicrogyrie/Polymicrogyrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La polymicrogyrie est principalement une anomalie de l'organisation corticale des neurones probablement par un trouble de la migration des neurones à l'origine des dernières couches cellulaires du cortex cérébral : le cortex cérébral est plus épais avec de multiples circonvolutions.
 La polymicrogyrie peut être localisée à une zone unique d'un lobe cérébral ou au contraire généralisée à l'ensemble du cortex. Les manifestations cliniques de cette maladie dépendent surtout de l'étendue de cette anomalie: ce sont des troubles neurologiques stables parfois nommés encéphalopathie statique.  Ces manifestations sont parfois minimes ou très importantes avec des manifestations visuelles, auditives, motrices ou cognitives. Les formes plus graves comprennent retard mental profond et épilepsie réfractaire au traitement.
@@ -516,9 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Infectieuses
-Toute infection in utero peut être responsable de polymicrogyrie : toxoplasmose, cytomégalovirus, varicelle, syphilis.On en rapprochera le syndrome transfuseur-transfusé.
-Héréditaires</t>
+          <t>Infectieuses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute infection in utero peut être responsable de polymicrogyrie : toxoplasmose, cytomégalovirus, varicelle, syphilis.On en rapprochera le syndrome transfuseur-transfusé.
+</t>
         </is>
       </c>
     </row>
